--- a/Sprint 3/Sprint 3 documents/Meeting_Minutes_Sprint_3.xlsx
+++ b/Sprint 3/Sprint 3 documents/Meeting_Minutes_Sprint_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Desktop\341-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Desktop\341-project\ctrl_c_ctrl_v-SOEN341_Project_F24\Sprint 3\Sprint 3 documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751A6E3-167B-40C3-9EC8-08517F12268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A41F7E9-E26C-4EFA-89A6-9E420FE6870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C61261F0-CB27-4F8F-9241-8A73D9D39547}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Daily Scrum</t>
   </si>
@@ -60,59 +60,141 @@
     <t>Rym Dallali,                                  Mauricio Murillo,                                       Jaden Wright-Maurais,                       Khalil Labban,                                       Carla Chamandi,                                    Nolan Ganz</t>
   </si>
   <si>
-    <t>1) Learn Cypress testing framework</t>
-  </si>
-  <si>
-    <t>The team focused on learning Cypress as a tool to aid in their testing processes.</t>
-  </si>
-  <si>
     <t>November 7, 2024</t>
   </si>
   <si>
-    <t>1) Review task progress
-2) Debug and pair program on tasks
-3) Discuss next steps and project progress</t>
-  </si>
-  <si>
-    <t>The team discussed their current task progress, debugged code issues together, and participated in pair programming sessions to enhance efficiency. They also reviewed the next steps and discussed the overall progress of the project.</t>
-  </si>
-  <si>
     <t>November 8, 2024</t>
   </si>
   <si>
-    <t>1) Continue Cypress learning
-2) Work on Cypress register test
-3) Meet to discuss the register test specifics</t>
-  </si>
-  <si>
-    <t>Team members made progress in learning Cypress and focused on working with the Cypress register test. Mauricio and another team member met to discuss this register test in detail to refine its implementation.</t>
-  </si>
-  <si>
     <t>November 9, 2024</t>
   </si>
   <si>
-    <t>1) Continue "Create Teams" feature implementation
-2) Debug CSS issues
-3) Continue learning Cypress
-4) Develop email module and Peer Check email API</t>
-  </si>
-  <si>
-    <t>Team members continued implementing the "Create Teams" feature, worked on debugging CSS, and started familiarizing themselves further with Cypress. Additionally, a module was created to email users, and an API for Peer Check emails was developed using Gmail.</t>
-  </si>
-  <si>
     <t>Concordia University H8 Lab Room</t>
   </si>
   <si>
     <t>November 10, 2024</t>
   </si>
   <si>
-    <t>1) Conduct acceptance testing
-2) Review pull requests
-3) Continue Cypress learning
-4) Update team documentation</t>
-  </si>
-  <si>
-    <t>The team focused on acceptance testing and reviewed pull requests. They continued their work on Cypress and made updates to team documentation to ensure alignment on testing processes.</t>
+    <t xml:space="preserve"> October 30, 2024</t>
+  </si>
+  <si>
+    <t>1. Review PR
+2. Finalize CVS upload page
+3. Debug code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team reviewed pull requests and made progress in debugging issues within the code. Additionally, the final design of the CVS upload page was discussed and worked on.
+</t>
+  </si>
+  <si>
+    <t>October 31, 2024</t>
+  </si>
+  <si>
+    <t>1. Update side menu CSS
+2. Highlight current selected course
+3. Fix redirection bug
+4. Review PR
+5. Discuss unit and integration testing
+6. Plan user stories</t>
+  </si>
+  <si>
+    <t>The team updated the side menu's CSS, added functionality to highlight the selected course, and worked on fixing a redirection bug. They also reviewed pull requests and discussed plans for unit and integration testing. The team drafted user stories and talked about acceptance testing requirements.</t>
+  </si>
+  <si>
+    <t>November 1, 2024</t>
+  </si>
+  <si>
+    <t>1. Review PRs
+2. Fix minor bugs</t>
+  </si>
+  <si>
+    <t>Pull requests were reviewed, and minor bugs were identified and fixed as part of the ongoing sprint tasks.</t>
+  </si>
+  <si>
+    <t>November 2, 2024</t>
+  </si>
+  <si>
+    <t>1. Work on UI design for result view
+2. Implement summary endpoints
+3. Research on Jest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team worked on the UI design for the result view from the Instructor's perspective and implemented endpoints for summarizing evaluations. Some team members also researched Jest for potential testing purposes.
+</t>
+  </si>
+  <si>
+    <t>November 3, 2024</t>
+  </si>
+  <si>
+    <t>November 4, 2024</t>
+  </si>
+  <si>
+    <t>November 5, 2024</t>
+  </si>
+  <si>
+    <t>4:15 to 5:55 PM</t>
+  </si>
+  <si>
+    <t>1. Continue UI design for result view
+2. Develop tests for summary endpoints</t>
+  </si>
+  <si>
+    <t>The result view UI design was refined further, and tests were created for the summary of evaluations endpoint.</t>
+  </si>
+  <si>
+    <t>The team reviewed the summary PR and incorporated feedback. They also began working on the detailed view PR.</t>
+  </si>
+  <si>
+    <t>1. Make changes based on PR feedback
+2. Work on detailed view PR</t>
+  </si>
+  <si>
+    <t>The UI and functionality for the evaluation results dashboard were implemented, and work began on the detailed view for evaluation results. The team also confirmed that Cypress would be used for testing.</t>
+  </si>
+  <si>
+    <t>1. Implement UI and functionality for evaluation results dashboard
+2. Begin detailed view of evaluation results
+3. Confirm Cypress usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progress was made on implementing the detailed view of evaluation results, and pull requests were reviewed. Team members continued learning Cypress to implement test automation.
+</t>
+  </si>
+  <si>
+    <t>1. Work on detailed view implementation
+2. Conduct PR reviews
+3. Learn Cypress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team discussed their current task progress, debugged some issues, and participated in pair coding sessions. They also outlined the next steps for the project, and several members focused on learning Cypress and creating related tests.
+</t>
+  </si>
+  <si>
+    <t>1. Review task progress
+2. Debug code
+3. Continue Cypress learning</t>
+  </si>
+  <si>
+    <t>The register test was worked on in Cypress, and a meeting was held to discuss its implementation in detail.</t>
+  </si>
+  <si>
+    <t>1. Develop Cypress register test
+2. Meet to discuss register test</t>
+  </si>
+  <si>
+    <t>Progress continued on implementing the createTeams feature, and a module for sending emails to users was created, along with a Peer Check email API.</t>
+  </si>
+  <si>
+    <t>1. Continue createTeams implementation
+2. Develop module for emailing users</t>
+  </si>
+  <si>
+    <t>The team completed acceptance tests, reviewed outstanding pull requests, and worked on documenting aspects of the project related to team operations and processes.</t>
+  </si>
+  <si>
+    <t>1. Finish acceptance tests
+2. Review PRs
+3. Work on team documentation</t>
   </si>
 </sst>
 </file>
@@ -151,13 +233,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B513A8DF-DE09-465B-83FE-CCB603017448}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,6 +569,7 @@
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
     <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -513,104 +596,268 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
